--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="208">
+  <si>
+    <t>发票代码</t>
+  </si>
   <si>
     <t>发票号码</t>
   </si>
@@ -22,73 +25,644 @@
     <t>开票日期</t>
   </si>
   <si>
+    <t>校验码</t>
+  </si>
+  <si>
+    <t>机器编号</t>
+  </si>
+  <si>
+    <t>密码区</t>
+  </si>
+  <si>
+    <t>购买方名称</t>
+  </si>
+  <si>
+    <t>购买方开户行及账号</t>
+  </si>
+  <si>
+    <t>购买方地址电话</t>
+  </si>
+  <si>
     <t>购买方纳税人识别号</t>
   </si>
   <si>
-    <t>购买方名称</t>
+    <t>货物或应税劳务、服务名称</t>
+  </si>
+  <si>
+    <t>规格型号</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>税率</t>
+  </si>
+  <si>
+    <t>税额</t>
+  </si>
+  <si>
+    <t>价税合计(大写)</t>
+  </si>
+  <si>
+    <t>价税合计(小写)</t>
+  </si>
+  <si>
+    <t>销售方名称</t>
+  </si>
+  <si>
+    <t>销售方开户行及账号</t>
+  </si>
+  <si>
+    <t>销售方地址电话</t>
   </si>
   <si>
     <t>销售方纳税人识别号</t>
   </si>
   <si>
-    <t>销售方名称</t>
-  </si>
-  <si>
-    <t>价税合计(大写)</t>
-  </si>
-  <si>
-    <t>价税合计(小写)</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
+    <t>收款人</t>
+  </si>
+  <si>
+    <t>复核</t>
+  </si>
+  <si>
+    <t>开票人</t>
+  </si>
+  <si>
+    <t>销售方</t>
+  </si>
+  <si>
+    <t>011002200611</t>
+  </si>
+  <si>
+    <t>76887144</t>
+  </si>
+  <si>
+    <t>77933459</t>
+  </si>
+  <si>
+    <t>76668526</t>
+  </si>
+  <si>
     <t>22312000000004435105</t>
   </si>
   <si>
+    <t>77290245</t>
+  </si>
+  <si>
+    <t>76634513</t>
+  </si>
+  <si>
+    <t>76634515</t>
+  </si>
+  <si>
+    <t>22312000000004788281</t>
+  </si>
+  <si>
+    <t>73469277</t>
+  </si>
+  <si>
+    <t>77290242</t>
+  </si>
+  <si>
+    <t>73469279</t>
+  </si>
+  <si>
+    <t>76600089</t>
+  </si>
+  <si>
+    <t>75934444</t>
+  </si>
+  <si>
+    <t>73900059</t>
+  </si>
+  <si>
+    <t>76887141</t>
+  </si>
+  <si>
+    <t>73968886</t>
+  </si>
+  <si>
+    <t>74970093</t>
+  </si>
+  <si>
+    <t>73968888</t>
+  </si>
+  <si>
+    <t>77898758</t>
+  </si>
+  <si>
+    <t>75467862</t>
+  </si>
+  <si>
+    <t>75434263</t>
+  </si>
+  <si>
+    <t>74434959</t>
+  </si>
+  <si>
     <t>22312000000004487924</t>
   </si>
   <si>
-    <t>22312000000004788281</t>
+    <t>76920832</t>
+  </si>
+  <si>
+    <t>74936743</t>
+  </si>
+  <si>
+    <t>76887145</t>
+  </si>
+  <si>
+    <t>77338556</t>
+  </si>
+  <si>
+    <t>76887143</t>
+  </si>
+  <si>
+    <t>76668528</t>
+  </si>
+  <si>
+    <t>2023年03月28日</t>
   </si>
   <si>
     <t>2022年12月14日</t>
   </si>
   <si>
+    <t>2022年12月19日</t>
+  </si>
+  <si>
     <t>2022年12月15日</t>
   </si>
   <si>
-    <t>2022年12月19日</t>
+    <t>45408869153518189016</t>
+  </si>
+  <si>
+    <t>52469050974159032845</t>
+  </si>
+  <si>
+    <t>64586534210927164152</t>
+  </si>
+  <si>
+    <t>69766295642822062668</t>
+  </si>
+  <si>
+    <t>58702749112248231634</t>
+  </si>
+  <si>
+    <t>47224524600761792647</t>
+  </si>
+  <si>
+    <t>83790201453427343895</t>
+  </si>
+  <si>
+    <t>47457930103005275487</t>
+  </si>
+  <si>
+    <t>49259940603775436603</t>
+  </si>
+  <si>
+    <t>80578665062368502011</t>
+  </si>
+  <si>
+    <t>62242752592147020703</t>
+  </si>
+  <si>
+    <t>71331077142575464680</t>
+  </si>
+  <si>
+    <t>56374722281695347994</t>
+  </si>
+  <si>
+    <t>50820206782238788844</t>
+  </si>
+  <si>
+    <t>62586293862575892075</t>
+  </si>
+  <si>
+    <t>79570794922066180305</t>
+  </si>
+  <si>
+    <t>51055379612058591224</t>
+  </si>
+  <si>
+    <t>80160683512504595910</t>
+  </si>
+  <si>
+    <t>44762498431152015962</t>
+  </si>
+  <si>
+    <t>60283876920691883172</t>
+  </si>
+  <si>
+    <t>59878803740308543224</t>
+  </si>
+  <si>
+    <t>67224047992351736696</t>
+  </si>
+  <si>
+    <t>67708972153589030054</t>
+  </si>
+  <si>
+    <t>52855114104059742005</t>
+  </si>
+  <si>
+    <t>43186692623807014696</t>
+  </si>
+  <si>
+    <t>49039817283598872746</t>
+  </si>
+  <si>
+    <t>661200219081</t>
+  </si>
+  <si>
+    <t>661200219099</t>
+  </si>
+  <si>
+    <t>661200219304</t>
+  </si>
+  <si>
+    <t>661200217894</t>
+  </si>
+  <si>
+    <t>661200219267</t>
+  </si>
+  <si>
+    <t>661200219275</t>
+  </si>
+  <si>
+    <t>661200219072</t>
+  </si>
+  <si>
+    <t>661200219283</t>
+  </si>
+  <si>
+    <t>661200219291</t>
+  </si>
+  <si>
+    <t>661200219101</t>
+  </si>
+  <si>
+    <t>8--124+&lt;6&gt;47&gt;&gt;72&lt;+63201&gt;438-&lt;/226&lt;3&gt;/191-877+0&lt;--2051//+219&gt;1&gt;7552894+&gt;&gt;&gt;5*+7-616&gt;43*-*2226&lt;3&gt;/191-877+082&gt;6</t>
+  </si>
+  <si>
+    <t>-/9+/0+0017&gt;&lt;0+*9-1*85&lt;483&lt;656&lt;894*/3086-91*&gt;2&gt;6-53+0+403&gt;+934815*&lt;772&lt;02---04*49483+679&lt;894*/3086-91*&gt;29&gt;31</t>
+  </si>
+  <si>
+    <t>+03/3971&gt;53/0-8&gt;&gt;&lt;831131+5+412-/33833-5&lt;--03583047111-&lt;723-493688/13300-08/&lt;9-5041+5&lt;43/-/33833-5&lt;--03585903</t>
+  </si>
+  <si>
+    <t>18*57/&gt;5&lt;&gt;*0+01++**/+**2-*/&lt;8&gt;0/341+380&gt;06&lt;&gt;4&lt;-6378680/3&lt;40*6-2*0909*/+09/8*/5&lt;/-2-*9&lt;+00/341+380&gt;06&lt;&gt;4&lt;/&gt;73</t>
+  </si>
+  <si>
+    <t>+6/7-1*&lt;92&lt;149/++/7747846+/51-71967728&gt;4321093&gt;3665864-239-279&lt;03274&lt;*495/8/6&gt;06&gt;46+953471967728&gt;43210939+12</t>
+  </si>
+  <si>
+    <t>7/&lt;1&gt;*623&gt;4&lt;&lt;316&lt;6789&lt;&gt;-0&lt;3-0&lt;84&lt;3&gt;&lt;992+3&lt;321*6/4*&lt;5&lt;8/&lt;/&lt;694&gt;+/9&lt;/943&lt;391*660/&gt;8-0&lt;7-2184&lt;3&gt;&lt;992+3&lt;321*0438</t>
+  </si>
+  <si>
+    <t>0/381663/0*803*04&gt;70&gt;45&lt;&gt;7086-9064&lt;&gt;2&gt;+6+&lt;93*/*0&lt;770&lt;83/4/1996479&gt;36*503476&gt;68-52&lt;&gt;748449064&lt;&gt;2&gt;+6+&lt;93*/+9*3</t>
+  </si>
+  <si>
+    <t>9-6020110665978-*85&gt;&gt;617+81+*+9**5-/46&lt;8&lt;*69*7+*&gt;+2-3/*0-28&gt;*&lt;71&lt;/&lt;068970*&lt;847-767+85+&lt;59**5-/46&lt;8&lt;*69*7*56&lt;</t>
+  </si>
+  <si>
+    <t>4&gt;+36&lt;/*3582/8526+6&lt;004&lt;31-20901977+2*5040&lt;-&lt;&lt;&lt;73-552550&gt;05-0/3&gt;20/38&gt;/8/54+76413&lt;31&gt;22601977+2*5040&lt;-&lt;&lt;8&lt;4&gt;</t>
+  </si>
+  <si>
+    <t>92*152&gt;2&gt;049/78-141-99+9+*&lt;87+48751261/&lt;340&lt;238+7017*8+21&lt;866&gt;030&lt;1644/70*3403/8/9+*+85548751261/&lt;340&lt;23&lt;3-4</t>
+  </si>
+  <si>
+    <t>67047/9-57//2&gt;7*-2-/&gt;-1772-5&gt;40+867+51*2141082742&lt;8&lt;59598073++2*67-1/02&gt;&gt;-92+5-+6772&gt;5/-0+867+51*21410821/2+</t>
+  </si>
+  <si>
+    <t>33/*&gt;+32&gt;/&lt;15931&gt;906477181/&lt;78904574037/8+19-&lt;40&gt;0114808&lt;92772+-*&lt;1-&lt;*59-6/91&lt;0601819&lt;57904574037/8+19-&lt;2984</t>
+  </si>
+  <si>
+    <t>&lt;7&lt;89-/74&lt;9&lt;&lt;*+95-2*85144-/-82&lt;584/-49*/&gt;1053&lt;&gt;54/779+5/44&gt;346*+2-+893&lt;*2&lt;7-34*4644-9-+/&lt;584/-49*/&gt;1053&lt;9**9</t>
+  </si>
+  <si>
+    <t>4562&lt;73+&gt;8+5*/248-5&gt;870-+1-342657+3/*7+4289*--&lt;6+/4&lt;2+&lt;20751**-6*61&lt;+8*/+3+-47*67-+1&gt;36/657+3/*7+4289*--8&gt;39</t>
+  </si>
+  <si>
+    <t>6&lt;1+8095*8+76&lt;403/3-&lt;3/9949&lt;1058&lt;85-*033&lt;&lt;62&gt;-&lt;4/++69769667+-4/1692&lt;++6&lt;*71/23+2+994/&lt;3&gt;58&lt;85-*033&lt;&lt;62&gt;-8/8&lt;</t>
+  </si>
+  <si>
+    <t>++661759&gt;734-474682*29675&gt;*128073478&gt;3*5381&lt;78&lt;5-31&gt;51&lt;6+/-&lt;*846+51139-4&gt;3483468175&gt;8107073478&gt;3*5381&lt;788*37</t>
+  </si>
+  <si>
+    <t>9-&lt;95&gt;&gt;512/8347+23&gt;&gt;8398-&gt;/880+-6**62&gt;5724*-12*6*966/2*7898&gt;470&lt;09&gt;4/534&gt;/03&lt;7*2&lt;8-&gt;98+&gt;+-6**62&gt;5724*-12+&gt;0/</t>
+  </si>
+  <si>
+    <t>5*5&lt;1-+50&gt;928&lt;3-*+9-553+0-*1*9965023&gt;2412651/*4368833&gt;&lt;8&gt;548&gt;04+59&lt;99&gt;8&lt;-*&lt;+83144+0-81&lt;6965023&gt;2412651/*2+5*</t>
+  </si>
+  <si>
+    <t>*13*0373*++1&lt;/&lt;/0-462**73+/92+4765&lt;----59/2308/72+3802173&gt;/592528&gt;2*+*&lt;/6+2-5&lt;6/-73+99054765&lt;----59/2308-&lt;0&lt;</t>
+  </si>
+  <si>
+    <t>/&lt;8-17&gt;-67/4-300&lt;440&gt;619&lt;56&lt;-71910742**--&gt;&gt;9+//&lt;&lt;819+&lt;583**+25460781/9-387*458-769&lt;52&lt;981910742**--&gt;&gt;9+/-73*</t>
+  </si>
+  <si>
+    <t>0&lt;+2&gt;/*+6500478165-1*44+3+*45808&lt;5+45&lt;&lt;-63++02-1-++83*&gt;-0*1+0*+*36830/470645+9853+3+847708&lt;5+45&lt;&lt;-63++02/83&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;0893&lt;2&lt;17/7*0-&gt;582/355+/01372&lt;5338&gt;3&gt;&lt;327+*/*1353-1525&gt;7&gt;++6*21&lt;07707*8*/59+9225+/41182&lt;5338&gt;3&gt;&lt;327+*/+801</t>
+  </si>
+  <si>
+    <t>0-93*1*+&gt;-1&gt;*-28*1+3*12+9+&lt;4*21+1380*-5-/&lt;*12&lt;/9190556-5821&gt;3/90361/12*-+&gt;&lt;1--805+9++4&lt;/1+1380*-5-/&lt;*12&lt;-02/</t>
+  </si>
+  <si>
+    <t>&lt;0*+/*85136751&lt;69&lt;33420837+&lt;2/1--55426&gt;3&lt;6198/56+9+&gt;+0*-+*&gt;4648/79&gt;56+5161-&lt;2-037837&lt;&lt;021--55426&gt;3&lt;6198/3&gt;6/</t>
+  </si>
+  <si>
+    <t>64&lt;+763&lt;558&gt;31912//833874495268&lt;/&lt;/9&lt;07803&lt;+&lt;367901&lt;24-/*4704427*2-38231160/*072&gt;744/5098&lt;/&lt;/9&lt;07803&lt;+&lt;30&lt;/4</t>
+  </si>
+  <si>
+    <t>4371+/&gt;17041&gt;-&lt;3023106-2*6-17+-6&gt;670-974*11461421&gt;2974576857/&gt;&gt;*0/964*&gt;-64222947*2*6&gt;155-6&gt;670-974*114612-&lt;-</t>
+  </si>
+  <si>
+    <t>蔡卫东</t>
+  </si>
+  <si>
+    <t>名称：亚马逊信息服务（北京）有限公司上海分公司</t>
   </si>
   <si>
     <t>统一社会信用代码/纳税人识别号：913100005903918561</t>
   </si>
   <si>
-    <t>名称：亚马逊信息服务（北京）有限公司上海分公司</t>
+    <t>*电信服务*预存通话费
+合计</t>
+  </si>
+  <si>
+    <t>*电信服务*增值费
+*电信服务*套餐固定费
+合计</t>
+  </si>
+  <si>
+    <t>*电信服务*套餐固定费
+合计</t>
+  </si>
+  <si>
+    <t>*电信服务*语音通信费
+*电信服务*套餐固定费
+合计</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>无
+无</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>张
+张</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1
+1</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>4.84
+45.16</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t>29.94</t>
+  </si>
+  <si>
+    <t>39.92</t>
+  </si>
+  <si>
+    <t>10.94
+19.06</t>
+  </si>
+  <si>
+    <t>5.09
+24.91</t>
+  </si>
+  <si>
+    <t>49.90
+¥49.90</t>
+  </si>
+  <si>
+    <t>4.84
+45.16
+¥50.00</t>
+  </si>
+  <si>
+    <t>9.98
+¥9.98</t>
+  </si>
+  <si>
+    <t>29.94
+¥29.94</t>
+  </si>
+  <si>
+    <t>39.92
+¥39.92</t>
+  </si>
+  <si>
+    <t>10.94
+19.06
+¥30.00</t>
+  </si>
+  <si>
+    <t>5.09
+24.91
+¥30.00</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*
+*</t>
+  </si>
+  <si>
+    <t>*
+*
+*</t>
+  </si>
+  <si>
+    <t>肆拾玖圆玖角</t>
+  </si>
+  <si>
+    <t>伍拾圆整</t>
+  </si>
+  <si>
+    <t>玖圆玖角捌分</t>
+  </si>
+  <si>
+    <t>叁佰肆拾玖圆肆角柒分</t>
+  </si>
+  <si>
+    <t>贰拾玖圆玖角肆分</t>
+  </si>
+  <si>
+    <t>壹仟肆佰捌拾陆圆捌角</t>
+  </si>
+  <si>
+    <t>叁拾玖圆玖角贰分</t>
+  </si>
+  <si>
+    <t>叁拾圆整</t>
+  </si>
+  <si>
+    <t>¥49.90</t>
+  </si>
+  <si>
+    <t>¥50.00</t>
+  </si>
+  <si>
+    <t>¥9.98</t>
+  </si>
+  <si>
+    <t>¥349.47</t>
+  </si>
+  <si>
+    <t>¥29.94</t>
+  </si>
+  <si>
+    <t>¥1486.80</t>
+  </si>
+  <si>
+    <t>¥39.92</t>
+  </si>
+  <si>
+    <t>¥30.00</t>
+  </si>
+  <si>
+    <t>中国移动通信集团北京有限公司</t>
+  </si>
+  <si>
+    <t>名称：上海齐心共赢网络科技有限公司</t>
+  </si>
+  <si>
+    <t>中国建设银行北京新华支行11001014600053013746</t>
+  </si>
+  <si>
+    <t>北京市东城区东直门南大街7号010-52186699</t>
+  </si>
+  <si>
+    <t>91110000722611700L</t>
   </si>
   <si>
     <t>统一社会信用代码/纳税人识别号：91310113MA1GMYUJ2U</t>
   </si>
   <si>
-    <t>名称：上海齐心共赢网络科技有限公司</t>
-  </si>
-  <si>
-    <t>叁佰肆拾玖圆肆角柒分</t>
-  </si>
-  <si>
-    <t>壹仟肆佰捌拾陆圆捌角</t>
-  </si>
-  <si>
-    <t>¥349.47</t>
-  </si>
-  <si>
-    <t>¥1486.80</t>
+    <t>15811353093付费方式:,boss发票流水号：4076787432</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093账期月:20220901--20220930应付:50.00实付:50.00,boss发票流水号：4287271299</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4252674085</t>
   </si>
   <si>
     <t>G8-09334324</t>
   </si>
   <si>
+    <t>15811353093付费方式:,boss发票流水号：4105136942</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4136083719</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4155190174</t>
+  </si>
+  <si>
     <t>G8-09312494</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4157171690</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4179471022</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4122866505</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4242630687</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4270562733</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4256724585</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4251212688</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4278055623</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093账期月:20221101--20221130应付:29.94实付:29.94,boss发票流水号：4287283203</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093账期月:20220701--20220731应付:30.00实付:30.00,boss发票流水号：4287271297</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4169397809</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093账期月:20220501--20220531应付:30.00实付:30.00,boss发票流水号：4287271295</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4098385154</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4272355115</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4258373512</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4283506918</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4067310828</t>
+  </si>
+  <si>
+    <t>业务号码:15811353093付费方式:,boss发票流水号：4267363615</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4086776077</t>
+  </si>
+  <si>
+    <t>15811353093付费方式:,boss发票流水号：4209810438</t>
+  </si>
+  <si>
+    <t>北京移动</t>
+  </si>
+  <si>
+    <t>北京移动手厅</t>
+  </si>
+  <si>
+    <t>(章)</t>
   </si>
 </sst>
 </file>
@@ -446,13 +1020,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,92 +1054,2310 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" t="s">
+        <v>163</v>
+      </c>
+      <c r="V2" t="s">
+        <v>171</v>
+      </c>
+      <c r="W2" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" t="s">
+        <v>156</v>
+      </c>
+      <c r="U3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" t="s">
+        <v>165</v>
+      </c>
+      <c r="V4" t="s">
+        <v>171</v>
+      </c>
+      <c r="W4" t="s">
+        <v>173</v>
+      </c>
+      <c r="X4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>148</v>
+      </c>
+      <c r="R6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" t="s">
+        <v>159</v>
+      </c>
+      <c r="U6" t="s">
+        <v>167</v>
+      </c>
+      <c r="V6" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" t="s">
+        <v>173</v>
+      </c>
+      <c r="X6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" t="s">
+        <v>153</v>
+      </c>
+      <c r="T7" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" t="s">
+        <v>163</v>
+      </c>
+      <c r="V7" t="s">
+        <v>171</v>
+      </c>
+      <c r="W7" t="s">
+        <v>173</v>
+      </c>
+      <c r="X7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S8" t="s">
+        <v>153</v>
+      </c>
+      <c r="T8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" t="s">
+        <v>167</v>
+      </c>
+      <c r="V8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X8" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" t="s">
+        <v>160</v>
+      </c>
+      <c r="U9" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" t="s">
+        <v>153</v>
+      </c>
+      <c r="T10" t="s">
+        <v>155</v>
+      </c>
+      <c r="U10" t="s">
+        <v>163</v>
+      </c>
+      <c r="V10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" t="s">
+        <v>173</v>
+      </c>
+      <c r="X10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>145</v>
+      </c>
+      <c r="R11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" t="s">
+        <v>153</v>
+      </c>
+      <c r="T11" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" t="s">
+        <v>163</v>
+      </c>
+      <c r="V11" t="s">
+        <v>171</v>
+      </c>
+      <c r="W11" t="s">
+        <v>173</v>
+      </c>
+      <c r="X11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>145</v>
+      </c>
+      <c r="R12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T12" t="s">
+        <v>155</v>
+      </c>
+      <c r="U12" t="s">
+        <v>163</v>
+      </c>
+      <c r="V12" t="s">
+        <v>171</v>
+      </c>
+      <c r="W12" t="s">
+        <v>173</v>
+      </c>
+      <c r="X12" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>145</v>
+      </c>
+      <c r="R13" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" t="s">
+        <v>153</v>
+      </c>
+      <c r="T13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V13" t="s">
+        <v>171</v>
+      </c>
+      <c r="W13" t="s">
+        <v>173</v>
+      </c>
+      <c r="X13" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" t="s">
+        <v>153</v>
+      </c>
+      <c r="T14" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" t="s">
+        <v>165</v>
+      </c>
+      <c r="V14" t="s">
+        <v>171</v>
+      </c>
+      <c r="W14" t="s">
+        <v>173</v>
+      </c>
+      <c r="X14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>147</v>
+      </c>
+      <c r="R15" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" t="s">
+        <v>153</v>
+      </c>
+      <c r="T15" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" t="s">
+        <v>165</v>
+      </c>
+      <c r="V15" t="s">
+        <v>171</v>
+      </c>
+      <c r="W15" t="s">
+        <v>173</v>
+      </c>
+      <c r="X15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>145</v>
+      </c>
+      <c r="R16" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" t="s">
+        <v>155</v>
+      </c>
+      <c r="U16" t="s">
+        <v>163</v>
+      </c>
+      <c r="V16" t="s">
+        <v>171</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>149</v>
+      </c>
+      <c r="R17" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" t="s">
+        <v>153</v>
+      </c>
+      <c r="T17" t="s">
+        <v>161</v>
+      </c>
+      <c r="U17" t="s">
+        <v>169</v>
+      </c>
+      <c r="V17" t="s">
+        <v>171</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R18" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" t="s">
+        <v>153</v>
+      </c>
+      <c r="T18" t="s">
+        <v>159</v>
+      </c>
+      <c r="U18" t="s">
+        <v>167</v>
+      </c>
+      <c r="V18" t="s">
+        <v>171</v>
+      </c>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>150</v>
+      </c>
+      <c r="R19" t="s">
+        <v>153</v>
+      </c>
+      <c r="S19" t="s">
+        <v>154</v>
+      </c>
+      <c r="T19" t="s">
+        <v>162</v>
+      </c>
+      <c r="U19" t="s">
+        <v>170</v>
+      </c>
+      <c r="V19" t="s">
+        <v>171</v>
+      </c>
+      <c r="W19" t="s">
+        <v>173</v>
+      </c>
+      <c r="X19" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>148</v>
+      </c>
+      <c r="R20" t="s">
+        <v>152</v>
+      </c>
+      <c r="S20" t="s">
+        <v>153</v>
+      </c>
+      <c r="T20" t="s">
+        <v>159</v>
+      </c>
+      <c r="U20" t="s">
+        <v>167</v>
+      </c>
+      <c r="V20" t="s">
+        <v>171</v>
+      </c>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R21" t="s">
+        <v>153</v>
+      </c>
+      <c r="S21" t="s">
+        <v>154</v>
+      </c>
+      <c r="T21" t="s">
+        <v>162</v>
+      </c>
+      <c r="U21" t="s">
+        <v>170</v>
+      </c>
+      <c r="V21" t="s">
+        <v>171</v>
+      </c>
+      <c r="W21" t="s">
+        <v>173</v>
+      </c>
+      <c r="X21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>145</v>
+      </c>
+      <c r="R22" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" t="s">
+        <v>153</v>
+      </c>
+      <c r="T22" t="s">
+        <v>155</v>
+      </c>
+      <c r="U22" t="s">
+        <v>163</v>
+      </c>
+      <c r="V22" t="s">
+        <v>171</v>
+      </c>
+      <c r="W22" t="s">
+        <v>173</v>
+      </c>
+      <c r="X22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>148</v>
+      </c>
+      <c r="R23" t="s">
+        <v>152</v>
+      </c>
+      <c r="S23" t="s">
+        <v>153</v>
+      </c>
+      <c r="T23" t="s">
+        <v>159</v>
+      </c>
+      <c r="U23" t="s">
+        <v>167</v>
+      </c>
+      <c r="V23" t="s">
+        <v>171</v>
+      </c>
+      <c r="W23" t="s">
+        <v>173</v>
+      </c>
+      <c r="X23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s">
+        <v>127</v>
+      </c>
+      <c r="V24" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>148</v>
+      </c>
+      <c r="R25" t="s">
+        <v>152</v>
+      </c>
+      <c r="S25" t="s">
+        <v>153</v>
+      </c>
+      <c r="T25" t="s">
+        <v>159</v>
+      </c>
+      <c r="U25" t="s">
+        <v>167</v>
+      </c>
+      <c r="V25" t="s">
+        <v>171</v>
+      </c>
+      <c r="W25" t="s">
+        <v>173</v>
+      </c>
+      <c r="X25" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1">
         <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>148</v>
+      </c>
+      <c r="R26" t="s">
+        <v>152</v>
+      </c>
+      <c r="S26" t="s">
+        <v>153</v>
+      </c>
+      <c r="T26" t="s">
+        <v>159</v>
+      </c>
+      <c r="U26" t="s">
+        <v>167</v>
+      </c>
+      <c r="V26" t="s">
+        <v>171</v>
+      </c>
+      <c r="W26" t="s">
+        <v>173</v>
+      </c>
+      <c r="X26" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>145</v>
+      </c>
+      <c r="R27" t="s">
+        <v>152</v>
+      </c>
+      <c r="S27" t="s">
+        <v>153</v>
+      </c>
+      <c r="T27" t="s">
+        <v>155</v>
+      </c>
+      <c r="U27" t="s">
+        <v>163</v>
+      </c>
+      <c r="V27" t="s">
+        <v>171</v>
+      </c>
+      <c r="W27" t="s">
+        <v>173</v>
+      </c>
+      <c r="X27" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>149</v>
+      </c>
+      <c r="R28" t="s">
+        <v>152</v>
+      </c>
+      <c r="S28" t="s">
+        <v>153</v>
+      </c>
+      <c r="T28" t="s">
+        <v>161</v>
+      </c>
+      <c r="U28" t="s">
+        <v>169</v>
+      </c>
+      <c r="V28" t="s">
+        <v>171</v>
+      </c>
+      <c r="W28" t="s">
+        <v>173</v>
+      </c>
+      <c r="X28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" t="s">
+        <v>132</v>
+      </c>
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>145</v>
+      </c>
+      <c r="R29" t="s">
+        <v>152</v>
+      </c>
+      <c r="S29" t="s">
+        <v>153</v>
+      </c>
+      <c r="T29" t="s">
+        <v>155</v>
+      </c>
+      <c r="U29" t="s">
+        <v>163</v>
+      </c>
+      <c r="V29" t="s">
+        <v>171</v>
+      </c>
+      <c r="W29" t="s">
+        <v>173</v>
+      </c>
+      <c r="X29" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>148</v>
+      </c>
+      <c r="R30" t="s">
+        <v>152</v>
+      </c>
+      <c r="S30" t="s">
+        <v>153</v>
+      </c>
+      <c r="T30" t="s">
+        <v>159</v>
+      </c>
+      <c r="U30" t="s">
+        <v>167</v>
+      </c>
+      <c r="V30" t="s">
+        <v>171</v>
+      </c>
+      <c r="W30" t="s">
+        <v>173</v>
+      </c>
+      <c r="X30" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
